--- a/artfynd/A 63767-2019.xlsx
+++ b/artfynd/A 63767-2019.xlsx
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>402369.7991915673</v>
+        <v>402370</v>
       </c>
       <c r="R2" t="n">
-        <v>6710617.611746165</v>
+        <v>6710618</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,19 +753,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">

--- a/artfynd/A 63767-2019.xlsx
+++ b/artfynd/A 63767-2019.xlsx
@@ -683,7 +683,7 @@
         <v>111928039</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/artfynd/A 63767-2019.xlsx
+++ b/artfynd/A 63767-2019.xlsx
@@ -683,7 +683,7 @@
         <v>111928039</v>
       </c>
       <c r="B2" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
